--- a/biology/Zoologie/Cymbalophora_pudica/Cymbalophora_pudica.xlsx
+++ b/biology/Zoologie/Cymbalophora_pudica/Cymbalophora_pudica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Écaille tesselée ou Écaille pudique (Cymbalophora pudica) est une espèce de lépidoptères (papillons) de la famille des Erebidae et de la sous-famille des Arctiinae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure des imagos varie de 35 à 42 mm.
 Comme d'autres espèces du genre Cymbalophora (= « porteurs de cymbales »), les mâles sont capables d'émettre lors du vol, des chuintements à partir de leurs ailes. 
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Portugal, Espagne, moitié sud de la France, îles et pourtour méditerranéens jusqu'aux Balkans, Ouest de l'Afrique du Nord.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce apprécie la végétation basse broussailleuse, sèche, riche en poacées (graminées), à la lisière des bois clairs ou dans les clairières, surtout en plaine. 
 </t>
@@ -605,10 +623,12 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, cette espèce est bivoltine et les papillons volent en mai-juin puis août-septembre[1]. Ils ont une activité essentiellement nocturne.
-Les chenilles se nourrissent sur des graminées[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, cette espèce est bivoltine et les papillons volent en mai-juin puis août-septembre. Ils ont une activité essentiellement nocturne.
+Les chenilles se nourrissent sur des graminées.
 </t>
         </is>
       </c>
